--- a/gridexcelComplete.xlsx
+++ b/gridexcelComplete.xlsx
@@ -8637,1366 +8637,1366 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>534.8052368164062</v>
+        <v>252.6642150878906</v>
       </c>
       <c r="C7" t="n">
-        <v>440.7362060546875</v>
+        <v>75.10340881347656</v>
       </c>
       <c r="D7" t="n">
-        <v>282.7131652832031</v>
+        <v>-162.6334838867188</v>
       </c>
       <c r="E7" t="n">
-        <v>146.2218017578125</v>
+        <v>21.1534423828125</v>
       </c>
       <c r="F7" t="n">
-        <v>191.3018798828125</v>
+        <v>-98.2427978515625</v>
       </c>
       <c r="G7" t="n">
-        <v>259.2320861816406</v>
+        <v>-95.83358764648438</v>
       </c>
       <c r="H7" t="n">
-        <v>266.5562744140625</v>
+        <v>-59.03907775878906</v>
       </c>
       <c r="I7" t="n">
-        <v>545.9943237304688</v>
+        <v>144.5120697021484</v>
       </c>
       <c r="J7" t="n">
-        <v>4678.359375</v>
+        <v>4368.67431640625</v>
       </c>
       <c r="K7" t="n">
-        <v>5578.810546875</v>
+        <v>5192.12890625</v>
       </c>
       <c r="L7" t="n">
-        <v>960.2431030273438</v>
+        <v>588.8596801757812</v>
       </c>
       <c r="M7" t="n">
-        <v>473.4390869140625</v>
+        <v>51.38739776611328</v>
       </c>
       <c r="N7" t="n">
-        <v>356.2554626464844</v>
+        <v>-17.80741310119629</v>
       </c>
       <c r="O7" t="n">
-        <v>343.7845153808594</v>
+        <v>-34.74031448364258</v>
       </c>
       <c r="P7" t="n">
-        <v>310.8597106933594</v>
+        <v>-76.28675079345703</v>
       </c>
       <c r="Q7" t="n">
-        <v>368.4818725585938</v>
+        <v>-6.561266899108887</v>
       </c>
       <c r="R7" t="n">
-        <v>415.4502258300781</v>
+        <v>23.20481491088867</v>
       </c>
       <c r="S7" t="n">
-        <v>411.908203125</v>
+        <v>5.541721343994141</v>
       </c>
       <c r="T7" t="n">
-        <v>361.8106689453125</v>
+        <v>-59.13090896606445</v>
       </c>
       <c r="U7" t="n">
-        <v>481.0569152832031</v>
+        <v>15.67228889465332</v>
       </c>
       <c r="V7" t="n">
-        <v>515.18408203125</v>
+        <v>33.02346420288086</v>
       </c>
       <c r="W7" t="n">
-        <v>518.0056762695312</v>
+        <v>19.03130912780762</v>
       </c>
       <c r="X7" t="n">
-        <v>563.1685180664062</v>
+        <v>84.54042053222656</v>
       </c>
       <c r="Y7" t="n">
-        <v>1184.36962890625</v>
+        <v>663.9815063476562</v>
       </c>
       <c r="Z7" t="n">
-        <v>3958.5146484375</v>
+        <v>3368.724365234375</v>
       </c>
       <c r="AA7" t="n">
-        <v>2841.55029296875</v>
+        <v>2234.4912109375</v>
       </c>
       <c r="AB7" t="n">
-        <v>2349.426513671875</v>
+        <v>1711.771118164062</v>
       </c>
       <c r="AC7" t="n">
-        <v>821.3901977539062</v>
+        <v>155.4317016601562</v>
       </c>
       <c r="AD7" t="n">
-        <v>665.2759399414062</v>
+        <v>-35.48085021972656</v>
       </c>
       <c r="AE7" t="n">
-        <v>638.787353515625</v>
+        <v>-55.44830322265625</v>
       </c>
       <c r="AF7" t="n">
-        <v>712.4090576171875</v>
+        <v>-58.29661178588867</v>
       </c>
       <c r="AG7" t="n">
-        <v>816.4442749023438</v>
+        <v>-47.91519165039062</v>
       </c>
       <c r="AH7" t="n">
-        <v>982.1885375976562</v>
+        <v>23.93437385559082</v>
       </c>
       <c r="AI7" t="n">
-        <v>1203.752685546875</v>
+        <v>-25.74449920654297</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1482.357055664062</v>
+        <v>51.67351150512695</v>
       </c>
       <c r="AK7" t="n">
-        <v>1517.556396484375</v>
+        <v>-79.4376220703125</v>
       </c>
       <c r="AL7" t="n">
-        <v>1628.610107421875</v>
+        <v>-88.32798004150391</v>
       </c>
       <c r="AM7" t="n">
-        <v>1807.439697265625</v>
+        <v>-50.59311676025391</v>
       </c>
       <c r="AN7" t="n">
-        <v>1932.363891601562</v>
+        <v>-33.2213020324707</v>
       </c>
       <c r="AO7" t="n">
-        <v>2092.354736328125</v>
+        <v>-83.49848175048828</v>
       </c>
       <c r="AP7" t="n">
-        <v>2242.5078125</v>
+        <v>-135.0370330810547</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2450.549560546875</v>
+        <v>-106.5984497070312</v>
       </c>
       <c r="AR7" t="n">
-        <v>2998.734619140625</v>
+        <v>-51.14466857910156</v>
       </c>
       <c r="AS7" t="n">
-        <v>3346.006591796875</v>
+        <v>323.444580078125</v>
       </c>
       <c r="AT7" t="n">
-        <v>3292.7939453125</v>
+        <v>101.8262634277344</v>
       </c>
       <c r="AU7" t="n">
-        <v>3209.078857421875</v>
+        <v>-161.057373046875</v>
       </c>
       <c r="AV7" t="n">
-        <v>3651.735107421875</v>
+        <v>-236.5201416015625</v>
       </c>
       <c r="AW7" t="n">
-        <v>5381.1865234375</v>
+        <v>-54.94828796386719</v>
       </c>
       <c r="AX7" t="n">
-        <v>18919.244140625</v>
+        <v>-11.8924503326416</v>
       </c>
       <c r="AY7" t="n">
-        <v>52973.18359375</v>
+        <v>-77.04277801513672</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27884.318359375</v>
+        <v>-30.46904373168945</v>
       </c>
       <c r="BA7" t="n">
-        <v>235465.96875</v>
+        <v>-108.6962051391602</v>
       </c>
       <c r="BB7" t="n">
-        <v>3630076.75</v>
+        <v>-26.19671630859375</v>
       </c>
       <c r="BC7" t="n">
-        <v>3698398.25</v>
+        <v>142.9077606201172</v>
       </c>
       <c r="BD7" t="n">
-        <v>425101.09375</v>
+        <v>89.91252136230469</v>
       </c>
       <c r="BE7" t="n">
-        <v>43173.7734375</v>
+        <v>-85.94693756103516</v>
       </c>
       <c r="BF7" t="n">
-        <v>10349.900390625</v>
+        <v>-58.498291015625</v>
       </c>
       <c r="BG7" t="n">
-        <v>6192.52783203125</v>
+        <v>-84.57108306884766</v>
       </c>
       <c r="BH7" t="n">
-        <v>4902.2626953125</v>
+        <v>-71.6124267578125</v>
       </c>
       <c r="BI7" t="n">
-        <v>3581.8916015625</v>
+        <v>-33.96250152587891</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3165.4462890625</v>
+        <v>-6.031857490539551</v>
       </c>
       <c r="BK7" t="n">
-        <v>3056.84619140625</v>
+        <v>193.9613800048828</v>
       </c>
       <c r="BL7" t="n">
-        <v>3459.77587890625</v>
+        <v>291.6634521484375</v>
       </c>
       <c r="BM7" t="n">
-        <v>2950.29248046875</v>
+        <v>529.3729248046875</v>
       </c>
       <c r="BN7" t="n">
-        <v>3009.8193359375</v>
+        <v>757.0740356445312</v>
       </c>
       <c r="BO7" t="n">
-        <v>2991.57568359375</v>
+        <v>233.1011962890625</v>
       </c>
       <c r="BP7" t="n">
-        <v>2161.380859375</v>
+        <v>-10.20009708404541</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1977.81884765625</v>
+        <v>-61.55686950683594</v>
       </c>
       <c r="BR7" t="n">
-        <v>1812.648803710938</v>
+        <v>-51.51053619384766</v>
       </c>
       <c r="BS7" t="n">
-        <v>1725.201782226562</v>
+        <v>4.687801361083984</v>
       </c>
       <c r="BT7" t="n">
-        <v>2123.793212890625</v>
+        <v>196.1929626464844</v>
       </c>
       <c r="BU7" t="n">
-        <v>-1800.253051757812</v>
+        <v>-3355.20947265625</v>
       </c>
       <c r="BV7" t="n">
-        <v>2188.02197265625</v>
+        <v>538.1361694335938</v>
       </c>
       <c r="BW7" t="n">
-        <v>1844.833129882812</v>
+        <v>224.7022247314453</v>
       </c>
       <c r="BX7" t="n">
-        <v>1556.377807617188</v>
+        <v>63.17598724365234</v>
       </c>
       <c r="BY7" t="n">
-        <v>1404.177856445312</v>
+        <v>49.81194305419922</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1483.003173828125</v>
+        <v>176.2393951416016</v>
       </c>
       <c r="CA7" t="n">
-        <v>1797.423706054688</v>
+        <v>356.159423828125</v>
       </c>
       <c r="CB7" t="n">
-        <v>7487.31982421875</v>
+        <v>6317.517578125</v>
       </c>
       <c r="CC7" t="n">
-        <v>12834.947265625</v>
+        <v>11665.375</v>
       </c>
       <c r="CD7" t="n">
-        <v>2749.669921875</v>
+        <v>1605.090576171875</v>
       </c>
       <c r="CE7" t="n">
-        <v>1357.2421875</v>
+        <v>323.2090148925781</v>
       </c>
       <c r="CF7" t="n">
-        <v>1057.837280273438</v>
+        <v>217.9744873046875</v>
       </c>
       <c r="CG7" t="n">
-        <v>2977.900146484375</v>
+        <v>2172.487060546875</v>
       </c>
       <c r="CH7" t="n">
-        <v>26161.85546875</v>
+        <v>25809.58203125</v>
       </c>
       <c r="CI7" t="n">
-        <v>27381.060546875</v>
+        <v>26756.693359375</v>
       </c>
       <c r="CJ7" t="n">
-        <v>4341.34228515625</v>
+        <v>3553.701416015625</v>
       </c>
       <c r="CK7" t="n">
-        <v>1397.1484375</v>
+        <v>778.3883666992188</v>
       </c>
       <c r="CL7" t="n">
-        <v>821.6196899414062</v>
+        <v>212.5991363525391</v>
       </c>
       <c r="CM7" t="n">
-        <v>945.6753540039062</v>
+        <v>328.0039978027344</v>
       </c>
       <c r="CN7" t="n">
-        <v>1783.283569335938</v>
+        <v>1058.776611328125</v>
       </c>
       <c r="CO7" t="n">
-        <v>10017.333984375</v>
+        <v>8580.294921875</v>
       </c>
       <c r="CP7" t="n">
-        <v>137263.609375</v>
+        <v>140971.5625</v>
       </c>
       <c r="CQ7" t="n">
-        <v>297382.3125</v>
+        <v>297433.15625</v>
       </c>
       <c r="CR7" t="n">
-        <v>44470.8984375</v>
+        <v>42796.73046875</v>
       </c>
       <c r="CS7" t="n">
-        <v>8995.853515625</v>
+        <v>7405.26708984375</v>
       </c>
       <c r="CT7" t="n">
-        <v>1440.776733398438</v>
+        <v>674.35595703125</v>
       </c>
       <c r="CU7" t="n">
-        <v>790.2545166015625</v>
+        <v>147.03564453125</v>
       </c>
       <c r="CV7" t="n">
-        <v>556.931396484375</v>
+        <v>-75.96738433837891</v>
       </c>
       <c r="CW7" t="n">
-        <v>577.5222778320312</v>
+        <v>-85.39472198486328</v>
       </c>
       <c r="CX7" t="n">
-        <v>444.2108154296875</v>
+        <v>-74.17500305175781</v>
       </c>
       <c r="CY7" t="n">
-        <v>542.45263671875</v>
+        <v>-24.14382362365723</v>
       </c>
       <c r="CZ7" t="n">
-        <v>405.1600341796875</v>
+        <v>-84.24881744384766</v>
       </c>
       <c r="DA7" t="n">
-        <v>452.0264892578125</v>
+        <v>-69.73011779785156</v>
       </c>
       <c r="DB7" t="n">
-        <v>475.7594604492188</v>
+        <v>-24.92560768127441</v>
       </c>
       <c r="DC7" t="n">
-        <v>448.8280639648438</v>
+        <v>31.04360580444336</v>
       </c>
       <c r="DD7" t="n">
-        <v>354.3207397460938</v>
+        <v>-113.2182159423828</v>
       </c>
       <c r="DE7" t="n">
-        <v>507.7149963378906</v>
+        <v>21.50881385803223</v>
       </c>
       <c r="DF7" t="n">
-        <v>881.0201416015625</v>
+        <v>441.8109436035156</v>
       </c>
       <c r="DG7" t="n">
-        <v>784.4278564453125</v>
+        <v>228.641845703125</v>
       </c>
       <c r="DH7" t="n">
-        <v>701.079833984375</v>
+        <v>326.2466125488281</v>
       </c>
       <c r="DI7" t="n">
-        <v>982.4400634765625</v>
+        <v>543.7149047851562</v>
       </c>
       <c r="DJ7" t="n">
-        <v>678.7573852539062</v>
+        <v>277.3061218261719</v>
       </c>
       <c r="DK7" t="n">
-        <v>1747.093017578125</v>
+        <v>1276.943969726562</v>
       </c>
       <c r="DL7" t="n">
-        <v>18768.927734375</v>
+        <v>18370.244140625</v>
       </c>
       <c r="DM7" t="n">
-        <v>12195.6689453125</v>
+        <v>11878.86328125</v>
       </c>
       <c r="DN7" t="n">
-        <v>1908.645629882812</v>
+        <v>1418.225463867188</v>
       </c>
       <c r="DO7" t="n">
-        <v>519.3270263671875</v>
+        <v>183.0735321044922</v>
       </c>
       <c r="DP7" t="n">
-        <v>250.7981567382812</v>
+        <v>-75.23577880859375</v>
       </c>
       <c r="DQ7" t="n">
-        <v>334.1778869628906</v>
+        <v>3.415498018264771</v>
       </c>
       <c r="DR7" t="n">
-        <v>383.4564514160156</v>
+        <v>49.42642974853516</v>
       </c>
       <c r="DS7" t="n">
-        <v>201.5646362304688</v>
+        <v>-127.4536285400391</v>
       </c>
       <c r="DT7" t="n">
-        <v>227.5006408691406</v>
+        <v>-33.75540161132812</v>
       </c>
       <c r="DU7" t="n">
-        <v>192.6904907226562</v>
+        <v>-61.83454132080078</v>
       </c>
       <c r="DV7" t="n">
-        <v>155.6300659179688</v>
+        <v>-50.30496978759766</v>
       </c>
       <c r="DW7" t="n">
-        <v>119.2149505615234</v>
+        <v>-100.9678192138672</v>
       </c>
       <c r="DX7" t="n">
-        <v>162.3427581787109</v>
+        <v>-66.72753143310547</v>
       </c>
       <c r="DY7" t="n">
-        <v>131.5200042724609</v>
+        <v>-126.7682952880859</v>
       </c>
       <c r="DZ7" t="n">
-        <v>110.8810806274414</v>
+        <v>-81.72043609619141</v>
       </c>
       <c r="EA7" t="n">
-        <v>89.67203521728516</v>
+        <v>-128.6818542480469</v>
       </c>
       <c r="EB7" t="n">
-        <v>141.1625366210938</v>
+        <v>-111.0015411376953</v>
       </c>
       <c r="EC7" t="n">
-        <v>113.1425094604492</v>
+        <v>-105.5423812866211</v>
       </c>
       <c r="ED7" t="n">
-        <v>164.0798645019531</v>
+        <v>-73.78849792480469</v>
       </c>
       <c r="EE7" t="n">
-        <v>124.3270721435547</v>
+        <v>-81.74932098388672</v>
       </c>
       <c r="EF7" t="n">
-        <v>139.8884429931641</v>
+        <v>-99.15482330322266</v>
       </c>
       <c r="EG7" t="n">
-        <v>184.1369781494141</v>
+        <v>-15.00069999694824</v>
       </c>
       <c r="EH7" t="n">
-        <v>79.76836395263672</v>
+        <v>-91.86029052734375</v>
       </c>
       <c r="EI7" t="n">
-        <v>141.9548950195312</v>
+        <v>-72.06695556640625</v>
       </c>
       <c r="EJ7" t="n">
-        <v>183.3005218505859</v>
+        <v>-92.13928985595703</v>
       </c>
       <c r="EK7" t="n">
-        <v>99.24673461914062</v>
+        <v>-89.083251953125</v>
       </c>
       <c r="EL7" t="n">
-        <v>54.40217971801758</v>
+        <v>-9.022416114807129</v>
       </c>
       <c r="EM7" t="n">
-        <v>106.9292068481445</v>
+        <v>-69.79895782470703</v>
       </c>
       <c r="EN7" t="n">
-        <v>236.7548217773438</v>
+        <v>93.64736938476562</v>
       </c>
       <c r="EO7" t="n">
-        <v>861.19921875</v>
+        <v>725.7192993164062</v>
       </c>
       <c r="EP7" t="n">
-        <v>1232.0751953125</v>
+        <v>1010.079528808594</v>
       </c>
       <c r="EQ7" t="n">
-        <v>336.6497802734375</v>
+        <v>202.4993743896484</v>
       </c>
       <c r="ER7" t="n">
-        <v>343.2990417480469</v>
+        <v>173.7513122558594</v>
       </c>
       <c r="ES7" t="n">
-        <v>123.1938858032227</v>
+        <v>-27.06182289123535</v>
       </c>
       <c r="ET7" t="n">
-        <v>144.8664245605469</v>
+        <v>12.19264888763428</v>
       </c>
       <c r="EU7" t="n">
-        <v>358.7255554199219</v>
+        <v>219.5683135986328</v>
       </c>
       <c r="EV7" t="n">
-        <v>201.7797088623047</v>
+        <v>92.96590423583984</v>
       </c>
       <c r="EW7" t="n">
-        <v>318.7552795410156</v>
+        <v>225.0342864990234</v>
       </c>
       <c r="EX7" t="n">
-        <v>393.3437194824219</v>
+        <v>281.5162963867188</v>
       </c>
       <c r="EY7" t="n">
-        <v>167.0352325439453</v>
+        <v>-3.464971780776978</v>
       </c>
       <c r="EZ7" t="n">
-        <v>169.3754119873047</v>
+        <v>34.35023498535156</v>
       </c>
       <c r="FA7" t="n">
-        <v>156.1371917724609</v>
+        <v>15.66694068908691</v>
       </c>
       <c r="FB7" t="n">
-        <v>318.1695861816406</v>
+        <v>136.9789428710938</v>
       </c>
       <c r="FC7" t="n">
-        <v>130.0439605712891</v>
+        <v>48.36295318603516</v>
       </c>
       <c r="FD7" t="n">
-        <v>136.7241516113281</v>
+        <v>8.39725399017334</v>
       </c>
       <c r="FE7" t="n">
-        <v>350.6719665527344</v>
+        <v>93.55195617675781</v>
       </c>
       <c r="FF7" t="n">
-        <v>373.6944580078125</v>
+        <v>150.0641937255859</v>
       </c>
       <c r="FG7" t="n">
-        <v>244.6401214599609</v>
+        <v>162.2485504150391</v>
       </c>
       <c r="FH7" t="n">
-        <v>165.6126251220703</v>
+        <v>41.49894714355469</v>
       </c>
       <c r="FI7" t="n">
-        <v>180.2607269287109</v>
+        <v>94.08377075195312</v>
       </c>
       <c r="FJ7" t="n">
-        <v>111.0052032470703</v>
+        <v>4.029851913452148</v>
       </c>
       <c r="FK7" t="n">
-        <v>193.6299133300781</v>
+        <v>64.26633453369141</v>
       </c>
       <c r="FL7" t="n">
-        <v>71.15224456787109</v>
+        <v>9.797306060791016</v>
       </c>
       <c r="FM7" t="n">
-        <v>234.9701232910156</v>
+        <v>137.1497650146484</v>
       </c>
       <c r="FN7" t="n">
-        <v>167.8230743408203</v>
+        <v>88.86138153076172</v>
       </c>
       <c r="FO7" t="n">
-        <v>229.4139862060547</v>
+        <v>310.2843017578125</v>
       </c>
       <c r="FP7" t="n">
-        <v>509.725341796875</v>
+        <v>387.4671630859375</v>
       </c>
       <c r="FQ7" t="n">
-        <v>744.6915893554688</v>
+        <v>700.7827758789062</v>
       </c>
       <c r="FR7" t="n">
-        <v>344.6493835449219</v>
+        <v>266.2348327636719</v>
       </c>
       <c r="FS7" t="n">
-        <v>126.0784378051758</v>
+        <v>-44.53288650512695</v>
       </c>
       <c r="FT7" t="n">
-        <v>22.25050354003906</v>
+        <v>-89.11068725585938</v>
       </c>
       <c r="FU7" t="n">
-        <v>19.62601089477539</v>
+        <v>-108.5657806396484</v>
       </c>
       <c r="FV7" t="n">
-        <v>26.16140556335449</v>
+        <v>-99.67416381835938</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.7420229911804199</v>
+        <v>-82.52729797363281</v>
       </c>
       <c r="FX7" t="n">
-        <v>399.084716796875</v>
+        <v>280.9451904296875</v>
       </c>
       <c r="FY7" t="n">
-        <v>759.939453125</v>
+        <v>634.7854614257812</v>
       </c>
       <c r="FZ7" t="n">
-        <v>255.4428405761719</v>
+        <v>141.0100860595703</v>
       </c>
       <c r="GA7" t="n">
-        <v>129.6612854003906</v>
+        <v>87.33831024169922</v>
       </c>
       <c r="GB7" t="n">
-        <v>141.0174865722656</v>
+        <v>66.02930450439453</v>
       </c>
       <c r="GC7" t="n">
-        <v>18.34147453308105</v>
+        <v>-56.91294479370117</v>
       </c>
       <c r="GD7" t="n">
-        <v>64.57299041748047</v>
+        <v>1.296716094017029</v>
       </c>
       <c r="GE7" t="n">
-        <v>261.6033020019531</v>
+        <v>176.0064239501953</v>
       </c>
       <c r="GF7" t="n">
-        <v>3535.42578125</v>
+        <v>3456.91162109375</v>
       </c>
       <c r="GG7" t="n">
-        <v>4391.1787109375</v>
+        <v>4272.4443359375</v>
       </c>
       <c r="GH7" t="n">
-        <v>7921.81982421875</v>
+        <v>7872.7734375</v>
       </c>
       <c r="GI7" t="n">
-        <v>15027.6787109375</v>
+        <v>15052.0810546875</v>
       </c>
       <c r="GJ7" t="n">
-        <v>2209.161376953125</v>
+        <v>2028.205688476562</v>
       </c>
       <c r="GK7" t="n">
-        <v>551.15234375</v>
+        <v>393.9940795898438</v>
       </c>
       <c r="GL7" t="n">
-        <v>9.676902770996094</v>
+        <v>-4.156585216522217</v>
       </c>
       <c r="GM7" t="n">
-        <v>-47.72414398193359</v>
+        <v>-103.1484298706055</v>
       </c>
       <c r="GN7" t="n">
-        <v>-4.530657768249512</v>
+        <v>-88.84729766845703</v>
       </c>
       <c r="GO7" t="n">
-        <v>-66.58135223388672</v>
+        <v>-78.80166625976562</v>
       </c>
       <c r="GP7" t="n">
-        <v>-51.68593978881836</v>
+        <v>-125.0303268432617</v>
       </c>
       <c r="GQ7" t="n">
-        <v>129.0306701660156</v>
+        <v>36.82767486572266</v>
       </c>
       <c r="GR7" t="n">
-        <v>1472.127685546875</v>
+        <v>1432.425903320312</v>
       </c>
       <c r="GS7" t="n">
-        <v>439.8261108398438</v>
+        <v>357.7142639160156</v>
       </c>
       <c r="GT7" t="n">
-        <v>39.55801391601562</v>
+        <v>-36.14213943481445</v>
       </c>
       <c r="GU7" t="n">
-        <v>54.25069046020508</v>
+        <v>-51.5504035949707</v>
       </c>
       <c r="GV7" t="n">
-        <v>305.0572204589844</v>
+        <v>111.7231216430664</v>
       </c>
       <c r="GW7" t="n">
-        <v>2091.7421875</v>
+        <v>2025.344116210938</v>
       </c>
       <c r="GX7" t="n">
-        <v>634.4046630859375</v>
+        <v>547.2198486328125</v>
       </c>
       <c r="GY7" t="n">
-        <v>30.76776313781738</v>
+        <v>-50.74174499511719</v>
       </c>
       <c r="GZ7" t="n">
-        <v>0.5883784294128418</v>
+        <v>-142.3681030273438</v>
       </c>
       <c r="HA7" t="n">
-        <v>699.2096557617188</v>
+        <v>535.991455078125</v>
       </c>
       <c r="HB7" t="n">
-        <v>532.3590087890625</v>
+        <v>454.4725952148438</v>
       </c>
       <c r="HC7" t="n">
-        <v>279.0189819335938</v>
+        <v>130.3302001953125</v>
       </c>
       <c r="HD7" t="n">
-        <v>2052.884765625</v>
+        <v>1928.348510742188</v>
       </c>
       <c r="HE7" t="n">
-        <v>4790.16259765625</v>
+        <v>4777.16748046875</v>
       </c>
       <c r="HF7" t="n">
-        <v>905.44580078125</v>
+        <v>791.4066772460938</v>
       </c>
       <c r="HG7" t="n">
-        <v>171.1819152832031</v>
+        <v>109.4264297485352</v>
       </c>
       <c r="HH7" t="n">
-        <v>9.680174827575684</v>
+        <v>-43.36883926391602</v>
       </c>
       <c r="HI7" t="n">
-        <v>-23.0860710144043</v>
+        <v>-165.2743072509766</v>
       </c>
       <c r="HJ7" t="n">
-        <v>8.710085868835449</v>
+        <v>-79.29239654541016</v>
       </c>
       <c r="HK7" t="n">
-        <v>89.35693359375</v>
+        <v>-67.05410003662109</v>
       </c>
       <c r="HL7" t="n">
-        <v>19.35417938232422</v>
+        <v>-95.58111572265625</v>
       </c>
       <c r="HM7" t="n">
-        <v>49.63996124267578</v>
+        <v>-72.7171630859375</v>
       </c>
       <c r="HN7" t="n">
-        <v>27.1171817779541</v>
+        <v>-1.951364159584045</v>
       </c>
       <c r="HO7" t="n">
-        <v>195.6281585693359</v>
+        <v>133.9861450195312</v>
       </c>
       <c r="HP7" t="n">
-        <v>37.99440002441406</v>
+        <v>-30.26776885986328</v>
       </c>
       <c r="HQ7" t="n">
-        <v>-12.8936939239502</v>
+        <v>-40.527099609375</v>
       </c>
       <c r="HR7" t="n">
-        <v>72.51303100585938</v>
+        <v>81.97566986083984</v>
       </c>
       <c r="HS7" t="n">
-        <v>137.5053253173828</v>
+        <v>14.03383541107178</v>
       </c>
       <c r="HT7" t="n">
-        <v>797.7666625976562</v>
+        <v>706.2574462890625</v>
       </c>
       <c r="HU7" t="n">
-        <v>235.8881530761719</v>
+        <v>207.3602142333984</v>
       </c>
       <c r="HV7" t="n">
-        <v>27.51846694946289</v>
+        <v>-25.13476753234863</v>
       </c>
       <c r="HW7" t="n">
-        <v>-70.68604278564453</v>
+        <v>-75.54148101806641</v>
       </c>
       <c r="HX7" t="n">
-        <v>-66.61272430419922</v>
+        <v>-85.32169342041016</v>
       </c>
       <c r="HY7" t="n">
-        <v>-27.7622127532959</v>
+        <v>-77.32099914550781</v>
       </c>
       <c r="HZ7" t="n">
-        <v>-44.88075256347656</v>
+        <v>-58.84539413452148</v>
       </c>
       <c r="IA7" t="n">
-        <v>-80.28769683837891</v>
+        <v>-118.782958984375</v>
       </c>
       <c r="IB7" t="n">
-        <v>-26.16896820068359</v>
+        <v>-54.15275955200195</v>
       </c>
       <c r="IC7" t="n">
-        <v>-11.38564586639404</v>
+        <v>-36.69660186767578</v>
       </c>
       <c r="ID7" t="n">
-        <v>-82.72006988525391</v>
+        <v>-113.7408905029297</v>
       </c>
       <c r="IE7" t="n">
-        <v>-68.26602172851562</v>
+        <v>-82.07276153564453</v>
       </c>
       <c r="IF7" t="n">
-        <v>40.6457633972168</v>
+        <v>2.130065202713013</v>
       </c>
       <c r="IG7" t="n">
-        <v>-22.39317512512207</v>
+        <v>-133.4308929443359</v>
       </c>
       <c r="IH7" t="n">
-        <v>35.21018981933594</v>
+        <v>-152.6298675537109</v>
       </c>
       <c r="II7" t="n">
-        <v>52.87638473510742</v>
+        <v>-36.84941864013672</v>
       </c>
       <c r="IJ7" t="n">
-        <v>39.34591674804688</v>
+        <v>-14.30581474304199</v>
       </c>
       <c r="IK7" t="n">
-        <v>-116.4042282104492</v>
+        <v>-135.3786468505859</v>
       </c>
       <c r="IL7" t="n">
-        <v>158.6029357910156</v>
+        <v>51.10343551635742</v>
       </c>
       <c r="IM7" t="n">
-        <v>-4.901296138763428</v>
+        <v>-14.91131496429443</v>
       </c>
       <c r="IN7" t="n">
-        <v>13.96700382232666</v>
+        <v>-27.7438850402832</v>
       </c>
       <c r="IO7" t="n">
-        <v>116.4672622680664</v>
+        <v>474.5191650390625</v>
       </c>
       <c r="IP7" t="n">
-        <v>145.8723602294922</v>
+        <v>62.37119293212891</v>
       </c>
       <c r="IQ7" t="n">
-        <v>208.3300933837891</v>
+        <v>123.3301696777344</v>
       </c>
       <c r="IR7" t="n">
-        <v>11.25975227355957</v>
+        <v>-14.14462089538574</v>
       </c>
       <c r="IS7" t="n">
-        <v>-65.00029754638672</v>
+        <v>-119.7569122314453</v>
       </c>
       <c r="IT7" t="n">
-        <v>92.72330474853516</v>
+        <v>66.84834289550781</v>
       </c>
       <c r="IU7" t="n">
-        <v>132.3086242675781</v>
+        <v>73.90151214599609</v>
       </c>
       <c r="IV7" t="n">
-        <v>276.7210693359375</v>
+        <v>244.8753204345703</v>
       </c>
       <c r="IW7" t="n">
-        <v>404.40673828125</v>
+        <v>371.2793579101562</v>
       </c>
       <c r="IX7" t="n">
-        <v>262.5472106933594</v>
+        <v>220.4521026611328</v>
       </c>
       <c r="IY7" t="n">
-        <v>148.6456146240234</v>
+        <v>68.51660919189453</v>
       </c>
       <c r="IZ7" t="n">
-        <v>85.48164367675781</v>
+        <v>78.07485961914062</v>
       </c>
       <c r="JA7" t="n">
-        <v>322.9995422363281</v>
+        <v>296.080322265625</v>
       </c>
       <c r="JB7" t="n">
-        <v>652.1365966796875</v>
+        <v>604.3192749023438</v>
       </c>
       <c r="JC7" t="n">
-        <v>86.38739776611328</v>
+        <v>209.9921722412109</v>
       </c>
       <c r="JD7" t="n">
-        <v>78.01319885253906</v>
+        <v>82.56104278564453</v>
       </c>
       <c r="JE7" t="n">
-        <v>42.08408737182617</v>
+        <v>0.5279278755187988</v>
       </c>
       <c r="JF7" t="n">
-        <v>28.75093078613281</v>
+        <v>21.98937225341797</v>
       </c>
       <c r="JG7" t="n">
-        <v>-3.270894289016724</v>
+        <v>-21.34556770324707</v>
       </c>
       <c r="JH7" t="n">
-        <v>49.23866653442383</v>
+        <v>35.73513412475586</v>
       </c>
       <c r="JI7" t="n">
-        <v>76.29296112060547</v>
+        <v>127.1586074829102</v>
       </c>
       <c r="JJ7" t="n">
-        <v>55.47673416137695</v>
+        <v>11.99102592468262</v>
       </c>
       <c r="JK7" t="n">
-        <v>-22.85092353820801</v>
+        <v>-48.66397857666016</v>
       </c>
       <c r="JL7" t="n">
-        <v>-9.997868537902832</v>
+        <v>-85.10817718505859</v>
       </c>
       <c r="JM7" t="n">
-        <v>-41.31271362304688</v>
+        <v>-54.00789260864258</v>
       </c>
       <c r="JN7" t="n">
-        <v>-43.67691802978516</v>
+        <v>-102.3771362304688</v>
       </c>
       <c r="JO7" t="n">
-        <v>-90.30886077880859</v>
+        <v>-58.0355110168457</v>
       </c>
       <c r="JP7" t="n">
-        <v>-27.38330078125</v>
+        <v>-20.18718528747559</v>
       </c>
       <c r="JQ7" t="n">
-        <v>-41.96770095825195</v>
+        <v>12.35707187652588</v>
       </c>
       <c r="JR7" t="n">
-        <v>-2.484505891799927</v>
+        <v>-6.474671840667725</v>
       </c>
       <c r="JS7" t="n">
-        <v>5.333564281463623</v>
+        <v>-11.87006855010986</v>
       </c>
       <c r="JT7" t="n">
-        <v>-98.05841064453125</v>
+        <v>-118.6463928222656</v>
       </c>
       <c r="JU7" t="n">
-        <v>-86.3616943359375</v>
+        <v>-88.469482421875</v>
       </c>
       <c r="JV7" t="n">
-        <v>-98.59955596923828</v>
+        <v>-63.88429641723633</v>
       </c>
       <c r="JW7" t="n">
-        <v>-42.80097579956055</v>
+        <v>-31.61162185668945</v>
       </c>
       <c r="JX7" t="n">
-        <v>43.49994659423828</v>
+        <v>-25.45354080200195</v>
       </c>
       <c r="JY7" t="n">
-        <v>75.85401916503906</v>
+        <v>79.00186157226562</v>
       </c>
       <c r="JZ7" t="n">
-        <v>52.08179092407227</v>
+        <v>-18.11722755432129</v>
       </c>
       <c r="KA7" t="n">
-        <v>329.1123962402344</v>
+        <v>273.43994140625</v>
       </c>
       <c r="KB7" t="n">
-        <v>225.114990234375</v>
+        <v>214.7601470947266</v>
       </c>
       <c r="KC7" t="n">
-        <v>532.0923461914062</v>
+        <v>513.1233520507812</v>
       </c>
       <c r="KD7" t="n">
-        <v>23.72260093688965</v>
+        <v>-69.20535278320312</v>
       </c>
       <c r="KE7" t="n">
-        <v>-56.292236328125</v>
+        <v>-113.2839813232422</v>
       </c>
       <c r="KF7" t="n">
-        <v>140.5778961181641</v>
+        <v>132.9912414550781</v>
       </c>
       <c r="KG7" t="n">
-        <v>126.434211730957</v>
+        <v>86.67800140380859</v>
       </c>
       <c r="KH7" t="n">
-        <v>191.3703765869141</v>
+        <v>196.6398010253906</v>
       </c>
       <c r="KI7" t="n">
-        <v>56.27093505859375</v>
+        <v>62.50799560546875</v>
       </c>
       <c r="KJ7" t="n">
-        <v>9.481613159179688</v>
+        <v>20.71002006530762</v>
       </c>
       <c r="KK7" t="n">
-        <v>190.9437561035156</v>
+        <v>169.6670379638672</v>
       </c>
       <c r="KL7" t="n">
-        <v>244.7027435302734</v>
+        <v>276.5425720214844</v>
       </c>
       <c r="KM7" t="n">
-        <v>2323.64111328125</v>
+        <v>2309.0966796875</v>
       </c>
       <c r="KN7" t="n">
-        <v>1698.909912109375</v>
+        <v>1689.65771484375</v>
       </c>
       <c r="KO7" t="n">
-        <v>279.6632080078125</v>
+        <v>217.2900695800781</v>
       </c>
       <c r="KP7" t="n">
-        <v>384.1681823730469</v>
+        <v>340.5699462890625</v>
       </c>
       <c r="KQ7" t="n">
-        <v>2633.188720703125</v>
+        <v>2517.8193359375</v>
       </c>
       <c r="KR7" t="n">
-        <v>5848.490234375</v>
+        <v>5971.02685546875</v>
       </c>
       <c r="KS7" t="n">
-        <v>1025.897827148438</v>
+        <v>1023.328247070312</v>
       </c>
       <c r="KT7" t="n">
-        <v>188.3105773925781</v>
+        <v>199.3366546630859</v>
       </c>
       <c r="KU7" t="n">
-        <v>-46.37750625610352</v>
+        <v>-3.262146472930908</v>
       </c>
       <c r="KV7" t="n">
-        <v>97.99501800537109</v>
+        <v>69.20778656005859</v>
       </c>
       <c r="KW7" t="n">
-        <v>118.7537841796875</v>
+        <v>41.68034744262695</v>
       </c>
       <c r="KX7" t="n">
-        <v>17.06229782104492</v>
+        <v>-13.36754131317139</v>
       </c>
       <c r="KY7" t="n">
-        <v>-52.63891983032227</v>
+        <v>17.99271965026855</v>
       </c>
       <c r="KZ7" t="n">
-        <v>-9.732277870178223</v>
+        <v>51.72121429443359</v>
       </c>
       <c r="LA7" t="n">
-        <v>153.0257415771484</v>
+        <v>157.3625183105469</v>
       </c>
       <c r="LB7" t="n">
-        <v>312.5900268554688</v>
+        <v>369.58056640625</v>
       </c>
       <c r="LC7" t="n">
-        <v>620.62255859375</v>
+        <v>670.4326171875</v>
       </c>
       <c r="LD7" t="n">
-        <v>110.4862670898438</v>
+        <v>168.464111328125</v>
       </c>
       <c r="LE7" t="n">
-        <v>69.03266906738281</v>
+        <v>108.6447677612305</v>
       </c>
       <c r="LF7" t="n">
-        <v>-0.3599043786525726</v>
+        <v>40.36606979370117</v>
       </c>
       <c r="LG7" t="n">
-        <v>45.13740158081055</v>
+        <v>83.82271575927734</v>
       </c>
       <c r="LH7" t="n">
-        <v>242.2374725341797</v>
+        <v>218.8352203369141</v>
       </c>
       <c r="LI7" t="n">
-        <v>168.4053497314453</v>
+        <v>172.3658142089844</v>
       </c>
       <c r="LJ7" t="n">
-        <v>38.46933746337891</v>
+        <v>11.20389461517334</v>
       </c>
       <c r="LK7" t="n">
-        <v>140.3362426757812</v>
+        <v>147.395751953125</v>
       </c>
       <c r="LL7" t="n">
-        <v>128.639404296875</v>
+        <v>181.6061859130859</v>
       </c>
       <c r="LM7" t="n">
-        <v>49.39601135253906</v>
+        <v>71.99327850341797</v>
       </c>
       <c r="LN7" t="n">
-        <v>106.9487457275391</v>
+        <v>199.5183715820312</v>
       </c>
       <c r="LO7" t="n">
-        <v>235.7457122802734</v>
+        <v>290.1248474121094</v>
       </c>
       <c r="LP7" t="n">
-        <v>212.1849060058594</v>
+        <v>256.54833984375</v>
       </c>
       <c r="LQ7" t="n">
-        <v>574.498291015625</v>
+        <v>626.9866333007812</v>
       </c>
       <c r="LR7" t="n">
-        <v>1156.93212890625</v>
+        <v>1207.147705078125</v>
       </c>
       <c r="LS7" t="n">
-        <v>319.5039672851562</v>
+        <v>339.1504821777344</v>
       </c>
       <c r="LT7" t="n">
-        <v>386.9795227050781</v>
+        <v>386.8873901367188</v>
       </c>
       <c r="LU7" t="n">
-        <v>499.48291015625</v>
+        <v>470.7521057128906</v>
       </c>
       <c r="LV7" t="n">
-        <v>643.0888671875</v>
+        <v>658.7489624023438</v>
       </c>
       <c r="LW7" t="n">
-        <v>149.4535217285156</v>
+        <v>169.2913208007812</v>
       </c>
       <c r="LX7" t="n">
-        <v>119.1334381103516</v>
+        <v>105.7347412109375</v>
       </c>
       <c r="LY7" t="n">
-        <v>24.60745811462402</v>
+        <v>76.16168212890625</v>
       </c>
       <c r="LZ7" t="n">
-        <v>52.0308952331543</v>
+        <v>56.16785049438477</v>
       </c>
       <c r="MA7" t="n">
-        <v>-44.79672241210938</v>
+        <v>-69.20674133300781</v>
       </c>
       <c r="MB7" t="n">
-        <v>-16.77239608764648</v>
+        <v>-129.1128845214844</v>
       </c>
       <c r="MC7" t="n">
-        <v>-6.21762752532959</v>
+        <v>-25.94380950927734</v>
       </c>
       <c r="MD7" t="n">
-        <v>22.51267433166504</v>
+        <v>83.14720153808594</v>
       </c>
       <c r="ME7" t="n">
-        <v>-38.46796035766602</v>
+        <v>83.54689788818359</v>
       </c>
       <c r="MF7" t="n">
-        <v>-100.9350051879883</v>
+        <v>12.49104118347168</v>
       </c>
       <c r="MG7" t="n">
-        <v>54.65675354003906</v>
+        <v>120.0566940307617</v>
       </c>
       <c r="MH7" t="n">
-        <v>469.3059387207031</v>
+        <v>494.5873413085938</v>
       </c>
       <c r="MI7" t="n">
-        <v>2083.375</v>
+        <v>2161.26318359375</v>
       </c>
       <c r="MJ7" t="n">
-        <v>600.5621337890625</v>
+        <v>646.0786743164062</v>
       </c>
       <c r="MK7" t="n">
-        <v>427.7659301757812</v>
+        <v>414.7947387695312</v>
       </c>
       <c r="ML7" t="n">
-        <v>798.3545532226562</v>
+        <v>734.4619750976562</v>
       </c>
       <c r="MM7" t="n">
-        <v>5815.7587890625</v>
+        <v>5626.7470703125</v>
       </c>
       <c r="MN7" t="n">
-        <v>12422.486328125</v>
+        <v>12657.330078125</v>
       </c>
       <c r="MO7" t="n">
-        <v>1815.956665039062</v>
+        <v>1868.432495117188</v>
       </c>
       <c r="MP7" t="n">
-        <v>416.7327270507812</v>
+        <v>417.2799377441406</v>
       </c>
       <c r="MQ7" t="n">
-        <v>1103.586791992188</v>
+        <v>1065.885498046875</v>
       </c>
       <c r="MR7" t="n">
-        <v>2143.148681640625</v>
+        <v>2253.6328125</v>
       </c>
       <c r="MS7" t="n">
-        <v>265.2074279785156</v>
+        <v>339.3323974609375</v>
       </c>
       <c r="MT7" t="n">
-        <v>408.5786437988281</v>
+        <v>436.43212890625</v>
       </c>
       <c r="MU7" t="n">
-        <v>1648.967895507812</v>
+        <v>1723.650756835938</v>
       </c>
       <c r="MV7" t="n">
-        <v>4492.72802734375</v>
+        <v>4389.36279296875</v>
       </c>
       <c r="MW7" t="n">
-        <v>6299.22802734375</v>
+        <v>6420.853515625</v>
       </c>
       <c r="MX7" t="n">
-        <v>994.0435791015625</v>
+        <v>986.2896118164062</v>
       </c>
       <c r="MY7" t="n">
-        <v>175.8229522705078</v>
+        <v>231.0277862548828</v>
       </c>
       <c r="MZ7" t="n">
-        <v>249.9285430908203</v>
+        <v>282.1883239746094</v>
       </c>
       <c r="NA7" t="n">
-        <v>304.5688781738281</v>
+        <v>326.96728515625</v>
       </c>
       <c r="NB7" t="n">
-        <v>24.81698226928711</v>
+        <v>134.1964569091797</v>
       </c>
       <c r="NC7" t="n">
-        <v>131.7886657714844</v>
+        <v>151.520263671875</v>
       </c>
       <c r="ND7" t="n">
-        <v>266.0045776367188</v>
+        <v>320.7764587402344</v>
       </c>
       <c r="NE7" t="n">
-        <v>-42.94146728515625</v>
+        <v>15.01593399047852</v>
       </c>
       <c r="NF7" t="n">
-        <v>81.05287933349609</v>
+        <v>151.1501770019531</v>
       </c>
       <c r="NG7" t="n">
-        <v>59.79678344726562</v>
+        <v>93.52932739257812</v>
       </c>
       <c r="NH7" t="n">
-        <v>77.46176910400391</v>
+        <v>121.4187774658203</v>
       </c>
       <c r="NI7" t="n">
-        <v>76.33290100097656</v>
+        <v>170.1599578857422</v>
       </c>
       <c r="NJ7" t="n">
-        <v>97.11811065673828</v>
+        <v>214.1085815429688</v>
       </c>
       <c r="NK7" t="n">
-        <v>70.61907958984375</v>
+        <v>151.378662109375</v>
       </c>
       <c r="NL7" t="n">
-        <v>200.6304168701172</v>
+        <v>317.5059204101562</v>
       </c>
       <c r="NM7" t="n">
-        <v>692.0628662109375</v>
+        <v>810.1292724609375</v>
       </c>
       <c r="NN7" t="n">
-        <v>1728.174438476562</v>
+        <v>1681.829956054688</v>
       </c>
       <c r="NO7" t="n">
-        <v>12400.6806640625</v>
+        <v>11999.2138671875</v>
       </c>
       <c r="NP7" t="n">
-        <v>29890.341796875</v>
+        <v>30440.646484375</v>
       </c>
       <c r="NQ7" t="n">
-        <v>4762.35986328125</v>
+        <v>4883.01806640625</v>
       </c>
       <c r="NR7" t="n">
-        <v>1651.277099609375</v>
+        <v>1711.761474609375</v>
       </c>
       <c r="NS7" t="n">
-        <v>521.7659912109375</v>
+        <v>566.7098388671875</v>
       </c>
       <c r="NT7" t="n">
-        <v>614.62744140625</v>
+        <v>748.3175659179688</v>
       </c>
       <c r="NU7" t="n">
-        <v>206.4042358398438</v>
+        <v>310.5504150390625</v>
       </c>
       <c r="NV7" t="n">
-        <v>309.5963439941406</v>
+        <v>451.8555603027344</v>
       </c>
       <c r="NW7" t="n">
-        <v>737.2888793945312</v>
+        <v>1033.09326171875</v>
       </c>
       <c r="NX7" t="n">
-        <v>131.5471343994141</v>
+        <v>248.9473724365234</v>
       </c>
       <c r="NY7" t="n">
-        <v>84.27516937255859</v>
+        <v>168.4478454589844</v>
       </c>
       <c r="NZ7" t="n">
-        <v>442.5651245117188</v>
+        <v>487.172119140625</v>
       </c>
       <c r="OA7" t="n">
-        <v>4880.419921875</v>
+        <v>4840.93115234375</v>
       </c>
       <c r="OB7" t="n">
-        <v>5538.09765625</v>
+        <v>6084.73779296875</v>
       </c>
       <c r="OC7" t="n">
-        <v>719.947265625</v>
+        <v>1148.7080078125</v>
       </c>
       <c r="OD7" t="n">
-        <v>120.8806838989258</v>
+        <v>226.7333068847656</v>
       </c>
       <c r="OE7" t="n">
-        <v>41.8439826965332</v>
+        <v>222.9253692626953</v>
       </c>
       <c r="OF7" t="n">
-        <v>104.9369583129883</v>
+        <v>272.3280334472656</v>
       </c>
       <c r="OG7" t="n">
-        <v>48.38187789916992</v>
+        <v>235.6082611083984</v>
       </c>
       <c r="OH7" t="n">
-        <v>149.4835357666016</v>
+        <v>333.8255615234375</v>
       </c>
       <c r="OI7" t="n">
-        <v>99.18273162841797</v>
+        <v>186.0047912597656</v>
       </c>
       <c r="OJ7" t="n">
-        <v>-33.84608459472656</v>
+        <v>138.3132781982422</v>
       </c>
       <c r="OK7" t="n">
-        <v>90.16571044921875</v>
+        <v>134.1067962646484</v>
       </c>
       <c r="OL7" t="n">
-        <v>55.20053863525391</v>
+        <v>179.7521057128906</v>
       </c>
       <c r="OM7" t="n">
-        <v>53.91454696655273</v>
+        <v>258.9490661621094</v>
       </c>
       <c r="ON7" t="n">
-        <v>151.2971038818359</v>
+        <v>376.5572204589844</v>
       </c>
       <c r="OO7" t="n">
-        <v>1212.069580078125</v>
+        <v>1469.436401367188</v>
       </c>
       <c r="OP7" t="n">
-        <v>730.1139526367188</v>
+        <v>916.8656616210938</v>
       </c>
       <c r="OQ7" t="n">
-        <v>223.9919128417969</v>
+        <v>466.0526428222656</v>
       </c>
       <c r="OR7" t="n">
-        <v>415.9938659667969</v>
+        <v>643.63134765625</v>
       </c>
       <c r="OS7" t="n">
-        <v>251.669189453125</v>
+        <v>574.7880859375</v>
       </c>
       <c r="OT7" t="n">
-        <v>259.5011901855469</v>
+        <v>531.9163818359375</v>
       </c>
       <c r="OU7" t="n">
-        <v>-7.593936920166016</v>
+        <v>301.6130981445312</v>
       </c>
       <c r="OV7" t="n">
-        <v>-44.26801300048828</v>
+        <v>304.2379455566406</v>
       </c>
       <c r="OW7" t="n">
-        <v>-43.90229034423828</v>
+        <v>205.3665161132812</v>
       </c>
       <c r="OX7" t="n">
-        <v>16.2857494354248</v>
+        <v>367.8913269042969</v>
       </c>
       <c r="OY7" t="n">
-        <v>183.8190460205078</v>
+        <v>570.70947265625</v>
       </c>
       <c r="OZ7" t="n">
-        <v>2052.302001953125</v>
+        <v>2409.92041015625</v>
       </c>
       <c r="PA7" t="n">
-        <v>3329.7236328125</v>
+        <v>3823.954345703125</v>
       </c>
       <c r="PB7" t="n">
-        <v>790.2214965820312</v>
+        <v>1185.54931640625</v>
       </c>
       <c r="PC7" t="n">
-        <v>2082.896484375</v>
+        <v>2500.928955078125</v>
       </c>
       <c r="PD7" t="n">
-        <v>1767.240966796875</v>
+        <v>2263.96826171875</v>
       </c>
       <c r="PE7" t="n">
-        <v>301.4452819824219</v>
+        <v>821.4698486328125</v>
       </c>
       <c r="PF7" t="n">
-        <v>-18.16718673706055</v>
+        <v>479.0919189453125</v>
       </c>
       <c r="PG7" t="n">
-        <v>-93.12680816650391</v>
+        <v>470.8070678710938</v>
       </c>
       <c r="PH7" t="n">
-        <v>-48.83583831787109</v>
+        <v>563.5040893554688</v>
       </c>
       <c r="PI7" t="n">
-        <v>-21.82661628723145</v>
+        <v>711.6630249023438</v>
       </c>
       <c r="PJ7" t="n">
-        <v>35.0921630859375</v>
+        <v>854.8088989257812</v>
       </c>
       <c r="PK7" t="n">
-        <v>818.4376220703125</v>
+        <v>1715.651123046875</v>
       </c>
       <c r="PL7" t="n">
-        <v>5163.8154296875</v>
+        <v>6276.423828125</v>
       </c>
       <c r="PM7" t="n">
-        <v>2434.304931640625</v>
+        <v>3707.7783203125</v>
       </c>
       <c r="PN7" t="n">
-        <v>479.4466552734375</v>
+        <v>1836.515747070312</v>
       </c>
       <c r="PO7" t="n">
-        <v>99.27781677246094</v>
+        <v>1559.153930664062</v>
       </c>
       <c r="PP7" t="n">
-        <v>35.59259796142578</v>
+        <v>1646.506469726562</v>
       </c>
       <c r="PQ7" t="n">
-        <v>3.170031785964966</v>
+        <v>1708.140380859375</v>
       </c>
       <c r="PR7" t="n">
-        <v>-25.57048606872559</v>
+        <v>1758.969970703125</v>
       </c>
       <c r="PS7" t="n">
-        <v>-38.47620391845703</v>
+        <v>1873.762451171875</v>
       </c>
       <c r="PT7" t="n">
-        <v>9.942458152770996</v>
+        <v>2087.17919921875</v>
       </c>
       <c r="PU7" t="n">
-        <v>2.713934659957886</v>
+        <v>2228.46826171875</v>
       </c>
       <c r="PV7" t="n">
-        <v>71.37498474121094</v>
+        <v>2457.936767578125</v>
       </c>
       <c r="PW7" t="n">
-        <v>19.90290451049805</v>
+        <v>2626.952392578125</v>
       </c>
       <c r="PX7" t="n">
-        <v>200.7174530029297</v>
+        <v>2873.021728515625</v>
       </c>
       <c r="PY7" t="n">
-        <v>122.7732925415039</v>
+        <v>2944.57275390625</v>
       </c>
       <c r="PZ7" t="n">
-        <v>81.75139617919922</v>
+        <v>3202.88427734375</v>
       </c>
       <c r="QA7" t="n">
-        <v>241.8835754394531</v>
+        <v>4863.41162109375</v>
       </c>
       <c r="QB7" t="n">
-        <v>2363.248046875</v>
+        <v>18825.798828125</v>
       </c>
       <c r="QC7" t="n">
-        <v>1580.329223632812</v>
+        <v>51886.87109375</v>
       </c>
       <c r="QD7" t="n">
-        <v>2172.0830078125</v>
+        <v>22368.55078125</v>
       </c>
       <c r="QE7" t="n">
-        <v>17591.6484375</v>
+        <v>102342.515625</v>
       </c>
       <c r="QF7" t="n">
-        <v>8994.6640625</v>
+        <v>1571934.625</v>
       </c>
       <c r="QG7" t="n">
-        <v>1222.9326171875</v>
+        <v>5111928</v>
       </c>
       <c r="QH7" t="n">
-        <v>129.5716247558594</v>
+        <v>910205.625</v>
       </c>
       <c r="QI7" t="n">
-        <v>-69.34539031982422</v>
+        <v>86556.890625</v>
       </c>
       <c r="QJ7" t="n">
-        <v>-198.6062927246094</v>
+        <v>13405.203125</v>
       </c>
       <c r="QK7" t="n">
-        <v>259.0920715332031</v>
+        <v>6943.60888671875</v>
       </c>
       <c r="QL7" t="n">
-        <v>1173.478759765625</v>
+        <v>5607.79150390625</v>
       </c>
       <c r="QM7" t="n">
-        <v>10911.681640625</v>
+        <v>14112.1328125</v>
       </c>
     </row>
     <row r="8">
